--- a/natmiOut/YoungD7/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.22690099197231</v>
+        <v>0.435996</v>
       </c>
       <c r="H2">
-        <v>1.22690099197231</v>
+        <v>1.307988</v>
       </c>
       <c r="I2">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J2">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.4659689164723</v>
+        <v>6.153886666666666</v>
       </c>
       <c r="N2">
-        <v>48.4659689164723</v>
+        <v>18.46166</v>
       </c>
       <c r="O2">
-        <v>0.7115449449447045</v>
+        <v>0.08077417226496708</v>
       </c>
       <c r="P2">
-        <v>0.7115449449447045</v>
+        <v>0.0807741722649671</v>
       </c>
       <c r="Q2">
-        <v>59.46294534051901</v>
+        <v>2.68306997112</v>
       </c>
       <c r="R2">
-        <v>59.46294534051901</v>
+        <v>24.14762974008</v>
       </c>
       <c r="S2">
-        <v>0.3915598999286689</v>
+        <v>0.01183675946427537</v>
       </c>
       <c r="T2">
-        <v>0.3915598999286689</v>
+        <v>0.01183675946427537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,111 +596,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.22690099197231</v>
+        <v>0.435996</v>
       </c>
       <c r="H3">
-        <v>1.22690099197231</v>
+        <v>1.307988</v>
       </c>
       <c r="I3">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J3">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.6477451374427</v>
+        <v>48.59929933333333</v>
       </c>
       <c r="N3">
-        <v>19.6477451374427</v>
+        <v>145.797898</v>
       </c>
       <c r="O3">
-        <v>0.2884550550552954</v>
+        <v>0.6379006291374719</v>
       </c>
       <c r="P3">
-        <v>0.2884550550552954</v>
+        <v>0.637900629137472</v>
       </c>
       <c r="Q3">
-        <v>24.10583799914758</v>
+        <v>21.189100112136</v>
       </c>
       <c r="R3">
-        <v>24.10583799914758</v>
+        <v>190.701901009224</v>
       </c>
       <c r="S3">
-        <v>0.1587354857817836</v>
+        <v>0.09347884475301541</v>
       </c>
       <c r="T3">
-        <v>0.1587354857817836</v>
+        <v>0.09347884475301542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.00263068107331</v>
+        <v>0.435996</v>
       </c>
       <c r="H4">
-        <v>1.00263068107331</v>
+        <v>1.307988</v>
       </c>
       <c r="I4">
-        <v>0.4497046142895476</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J4">
-        <v>0.4497046142895476</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.4659689164723</v>
+        <v>21.43313066666667</v>
       </c>
       <c r="N4">
-        <v>48.4659689164723</v>
+        <v>64.299392</v>
       </c>
       <c r="O4">
-        <v>0.7115449449447045</v>
+        <v>0.2813251985975609</v>
       </c>
       <c r="P4">
-        <v>0.7115449449447045</v>
+        <v>0.2813251985975609</v>
       </c>
       <c r="Q4">
-        <v>48.5934674236005</v>
+        <v>9.344759238144</v>
       </c>
       <c r="R4">
-        <v>48.5934674236005</v>
+        <v>84.102833143296</v>
       </c>
       <c r="S4">
-        <v>0.3199850450160357</v>
+        <v>0.04122578559041559</v>
       </c>
       <c r="T4">
-        <v>0.3199850450160357</v>
+        <v>0.04122578559041559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.288726</v>
+      </c>
+      <c r="H5">
+        <v>3.866178</v>
+      </c>
+      <c r="I5">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="J5">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>6.153886666666666</v>
+      </c>
+      <c r="N5">
+        <v>18.46166</v>
+      </c>
+      <c r="O5">
+        <v>0.08077417226496708</v>
+      </c>
+      <c r="P5">
+        <v>0.0807741722649671</v>
+      </c>
+      <c r="Q5">
+        <v>7.930673748386664</v>
+      </c>
+      <c r="R5">
+        <v>71.37606373547999</v>
+      </c>
+      <c r="S5">
+        <v>0.03498733859337639</v>
+      </c>
+      <c r="T5">
+        <v>0.0349873385933764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.288726</v>
+      </c>
+      <c r="H6">
+        <v>3.866178</v>
+      </c>
+      <c r="I6">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="J6">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>48.59929933333333</v>
+      </c>
+      <c r="N6">
+        <v>145.797898</v>
+      </c>
+      <c r="O6">
+        <v>0.6379006291374719</v>
+      </c>
+      <c r="P6">
+        <v>0.637900629137472</v>
+      </c>
+      <c r="Q6">
+        <v>62.63118063264933</v>
+      </c>
+      <c r="R6">
+        <v>563.6806256938439</v>
+      </c>
+      <c r="S6">
+        <v>0.2763067039219959</v>
+      </c>
+      <c r="T6">
+        <v>0.276306703921996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.288726</v>
+      </c>
+      <c r="H7">
+        <v>3.866178</v>
+      </c>
+      <c r="I7">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="J7">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>21.43313066666667</v>
+      </c>
+      <c r="N7">
+        <v>64.299392</v>
+      </c>
+      <c r="O7">
+        <v>0.2813251985975609</v>
+      </c>
+      <c r="P7">
+        <v>0.2813251985975609</v>
+      </c>
+      <c r="Q7">
+        <v>27.62143275153066</v>
+      </c>
+      <c r="R7">
+        <v>248.592894763776</v>
+      </c>
+      <c r="S7">
+        <v>0.1218560302406305</v>
+      </c>
+      <c r="T7">
+        <v>0.1218560302406305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.202417</v>
+      </c>
+      <c r="H8">
+        <v>0.607251</v>
+      </c>
+      <c r="I8">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J8">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>6.153886666666666</v>
+      </c>
+      <c r="N8">
+        <v>18.46166</v>
+      </c>
+      <c r="O8">
+        <v>0.08077417226496708</v>
+      </c>
+      <c r="P8">
+        <v>0.0807741722649671</v>
+      </c>
+      <c r="Q8">
+        <v>1.245651277406666</v>
+      </c>
+      <c r="R8">
+        <v>11.21086149666</v>
+      </c>
+      <c r="S8">
+        <v>0.005495374591694022</v>
+      </c>
+      <c r="T8">
+        <v>0.005495374591694023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.202417</v>
+      </c>
+      <c r="H9">
+        <v>0.607251</v>
+      </c>
+      <c r="I9">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J9">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>48.59929933333333</v>
+      </c>
+      <c r="N9">
+        <v>145.797898</v>
+      </c>
+      <c r="O9">
+        <v>0.6379006291374719</v>
+      </c>
+      <c r="P9">
+        <v>0.637900629137472</v>
+      </c>
+      <c r="Q9">
+        <v>9.837324373155333</v>
+      </c>
+      <c r="R9">
+        <v>88.535919358398</v>
+      </c>
+      <c r="S9">
+        <v>0.0433988094348827</v>
+      </c>
+      <c r="T9">
+        <v>0.04339880943488272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.202417</v>
+      </c>
+      <c r="H10">
+        <v>0.607251</v>
+      </c>
+      <c r="I10">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J10">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.43313066666667</v>
+      </c>
+      <c r="N10">
+        <v>64.299392</v>
+      </c>
+      <c r="O10">
+        <v>0.2813251985975609</v>
+      </c>
+      <c r="P10">
+        <v>0.2813251985975609</v>
+      </c>
+      <c r="Q10">
+        <v>4.338430010154666</v>
+      </c>
+      <c r="R10">
+        <v>39.045870091392</v>
+      </c>
+      <c r="S10">
+        <v>0.01913962477145468</v>
+      </c>
+      <c r="T10">
+        <v>0.01913962477145468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.144307</v>
+      </c>
+      <c r="I11">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J11">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>6.153886666666666</v>
+      </c>
+      <c r="N11">
+        <v>18.46166</v>
+      </c>
+      <c r="O11">
+        <v>0.08077417226496708</v>
+      </c>
+      <c r="P11">
+        <v>0.0807741722649671</v>
+      </c>
+      <c r="Q11">
+        <v>6.449902974402221</v>
+      </c>
+      <c r="R11">
+        <v>58.04912676962</v>
+      </c>
+      <c r="S11">
+        <v>0.0284546996156213</v>
+      </c>
+      <c r="T11">
+        <v>0.02845469961562131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.00263068107331</v>
-      </c>
-      <c r="H5">
-        <v>1.00263068107331</v>
-      </c>
-      <c r="I5">
-        <v>0.4497046142895476</v>
-      </c>
-      <c r="J5">
-        <v>0.4497046142895476</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>19.6477451374427</v>
-      </c>
-      <c r="N5">
-        <v>19.6477451374427</v>
-      </c>
-      <c r="O5">
-        <v>0.2884550550552954</v>
-      </c>
-      <c r="P5">
-        <v>0.2884550550552954</v>
-      </c>
-      <c r="Q5">
-        <v>19.69943208870899</v>
-      </c>
-      <c r="R5">
-        <v>19.69943208870899</v>
-      </c>
-      <c r="S5">
-        <v>0.1297195692735118</v>
-      </c>
-      <c r="T5">
-        <v>0.1297195692735118</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.144307</v>
+      </c>
+      <c r="I12">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J12">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>48.59929933333333</v>
+      </c>
+      <c r="N12">
+        <v>145.797898</v>
+      </c>
+      <c r="O12">
+        <v>0.6379006291374719</v>
+      </c>
+      <c r="P12">
+        <v>0.637900629137472</v>
+      </c>
+      <c r="Q12">
+        <v>50.93703902963178</v>
+      </c>
+      <c r="R12">
+        <v>458.433351266686</v>
+      </c>
+      <c r="S12">
+        <v>0.2247162710275779</v>
+      </c>
+      <c r="T12">
+        <v>0.224716271027578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.144307</v>
+      </c>
+      <c r="I13">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J13">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.43313066666667</v>
+      </c>
+      <c r="N13">
+        <v>64.299392</v>
+      </c>
+      <c r="O13">
+        <v>0.2813251985975609</v>
+      </c>
+      <c r="P13">
+        <v>0.2813251985975609</v>
+      </c>
+      <c r="Q13">
+        <v>22.46411426237155</v>
+      </c>
+      <c r="R13">
+        <v>202.177028361344</v>
+      </c>
+      <c r="S13">
+        <v>0.09910375799506024</v>
+      </c>
+      <c r="T13">
+        <v>0.09910375799506026</v>
       </c>
     </row>
   </sheetData>
